--- a/106年期末績效檢視_涂宇欣.xlsx
+++ b/106年期末績效檢視_涂宇欣.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="180" windowWidth="19395" windowHeight="7695" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="180" windowWidth="19395" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="職能" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>自評人－具體實際事例說明</t>
   </si>
@@ -108,16 +108,6 @@
   </si>
   <si>
     <t>二、職能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        於「預算暨費用系統」專案中進行時，先依據程式不同的特性將修改方式逐一寫下製作成對照文件後續依據文件逐一修改，但是在修改的過程中發現有些功能不人性化，像是查詢出來的資料沒有排序，無法有效率地找到自己想要查詢的資料，又或者在轉入上一年度的實支資料時使用者需將主檔的進行計算後才可以驗證資料的正確性。
-       後來與使用者了解後他們說也用習慣了沒想到說如何去改善，因此待了解該功能的作用後提出他們可以如何改善，像是查詢的資料可以做排序、增加查詢條件或者是將使用者知道的規則了解後將之拼湊成SQL語法候用報表或檔案的方式呈現，簡化使用者人工比對的時間增加效率且提升資料的正確性。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    撰寫預算實支追蹤表單需求單、業務員網站的匯款查詢時，需與不同部門的同仁們討論要如何撰寫程式，了解對方的程式邏輯，互相設想撰寫程式時可能會遇到的問題，待程式上版後互相檢視問題並且修改。
-    撰寫國外出差旅費時花費了較多的開發時間，使用者在提出需求時設想不周全造成再開發時需花費較多時間再做程式面的調整，也有發生程式修改後但沒遺漏放到SERVER可能會產生不一樣的結果的狀況，為了避免發生此狀況程式撰寫完成後會至SERVER上做功能的再確認。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -135,6 +125,11 @@
   <si>
     <t>1.增加了解對於系統與業務之間的邏輯關聯。
 2.程式撰寫的敏銳度提升。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    開發預算實支追蹤表單及業務員網站匯款查詢時，因是將資料拋到行政表單系統與業務員網站做呈現，因此需要與數資部的同仁們做溝通，了解他們的程式架構與業務邏輯，在討論的過程中也發生許多問題，像是行政表單系統檔案匯出時裡面包含逗點直接換行導致費用這端在處理資料匯入時會抓到錯誤斷行的資料。與數資部的同仁討論該問題後，提出換行符號變更為特殊符號後，得以解決此問題。因預算實支表單只有每季10號才會使用批次的功能，當批次內容發生錯誤的時候也無法即時重新跑批次產生檔案，只能委託數資部的同仁用資料異動幫忙修改檔案內容，同時在費用系統端也一併對程式做修正，以利下回批次作業可以順利完成。   
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -804,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -904,14 +899,12 @@
       <c r="D8" s="9"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="10" t="s">
-        <v>23</v>
-      </c>
+      <c r="C9" s="10"/>
       <c r="D9" s="12"/>
       <c r="E9" s="11"/>
     </row>
@@ -941,7 +934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -976,7 +969,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -988,7 +981,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
@@ -1000,7 +993,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>

--- a/106年期末績效檢視_涂宇欣.xlsx
+++ b/106年期末績效檢視_涂宇欣.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="180" windowWidth="19395" windowHeight="7695"/>
+    <workbookView xWindow="600" yWindow="180" windowWidth="19395" windowHeight="7695" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="職能" sheetId="2" r:id="rId1"/>
@@ -111,24 +111,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1.增加了解對於系統與業務之間的邏輯關聯。
+2.程式撰寫的敏銳度提升。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    開發預算實支追蹤表單及業務員網站匯款查詢時，因是將資料拋到行政表單系統與業務員網站做呈現，因此需要與數資部的同仁們做溝通，了解他們的程式架構與業務邏輯，在討論的過程中也發生許多問題需要解決。
+    1.行政表單系統檔案匯出時裡面包含逗點直接換行導致費用這端在處理資料匯入時會抓到錯誤斷行的資料。與數資部的同仁討論該問題後，提出換行符號變更為特殊符號後，得以解決此問題。因預算實支表單只有每季10號才會使用批次的功能，當批次內容發生錯誤的時候也無法即時重新跑批次產生檔案，只能委託數資部的同仁用資料異動幫忙修改檔案內容，同時在費用系統端也一併對程式做修正，以利下回批次作業可以順利完成。
+    2.業務員網站的部分是程式與資料都須由我們做開發以及維護，一開始就遇到資料存放的位置問題，原先想把資料直接拋轉至業務員網站的資料庫中，但因業務員網站的DB我們沒有權限所以無法直接拋轉過去，後來想讓業務員網站直接連我們費用DB抓資料但這樣也同樣會發生，對方沒權限的相同問題，最後與DBA的同仁們討論，他們建議我們可以單獨開一個帳號對應到這個table讓業務員網站可以直接對該欄位做查詢的動作。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.增加了解系統邏輯。
-2.提升技術開發能力。</t>
+2.提升技術開發能力。
+3.多了解使用者需求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
  1.提升需求單開發效率
-2.解決線上問題的反應力增加
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.增加了解對於系統與業務之間的邏輯關聯。
-2.程式撰寫的敏銳度提升。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    開發預算實支追蹤表單及業務員網站匯款查詢時，因是將資料拋到行政表單系統與業務員網站做呈現，因此需要與數資部的同仁們做溝通，了解他們的程式架構與業務邏輯，在討論的過程中也發生許多問題，像是行政表單系統檔案匯出時裡面包含逗點直接換行導致費用這端在處理資料匯入時會抓到錯誤斷行的資料。與數資部的同仁討論該問題後，提出換行符號變更為特殊符號後，得以解決此問題。因預算實支表單只有每季10號才會使用批次的功能，當批次內容發生錯誤的時候也無法即時重新跑批次產生檔案，只能委託數資部的同仁用資料異動幫忙修改檔案內容，同時在費用系統端也一併對程式做修正，以利下回批次作業可以順利完成。   
+2.解決線上問題的處理能力
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -799,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -901,7 +904,7 @@
     </row>
     <row r="9" spans="1:5" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="10"/>
@@ -934,7 +937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -969,7 +972,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -981,7 +984,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
@@ -993,7 +996,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
